--- a/draw_graph/all_log/profiler_result.xlsx
+++ b/draw_graph/all_log/profiler_result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3563CF4-AC13-4BEA-9C0B-52234653D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF44F78-8927-4368-B172-BE09E7F86655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5726660A-1BF2-4E8A-9A46-E1531239EFB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{433E881F-09D4-44EC-AE40-9660350EDDEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="global_load_requests" sheetId="1" r:id="rId1"/>
+    <sheet name="warp_execution_efficiency" sheetId="4" r:id="rId1"/>
     <sheet name="gld_transactions_per_request" sheetId="2" r:id="rId2"/>
-    <sheet name="warp_execution_efficiency" sheetId="3" r:id="rId3"/>
+    <sheet name="global_load_requests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>As-Caida</t>
   </si>
@@ -131,33 +131,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Datasets</t>
+  </si>
+  <si>
     <t>GroupTC-BS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GroupTC-HS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Datasets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,11 +183,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,717 +500,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764A9E97-D3A6-449E-93D2-66779DA0C1F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CBACC4-CE3F-4712-8129-06A16531535B}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>79540</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1226565</v>
-      </c>
-      <c r="D2" s="1">
-        <v>553860</v>
-      </c>
-      <c r="E2" s="1">
-        <v>467896</v>
-      </c>
-      <c r="F2" s="1">
-        <v>68328</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9797941</v>
-      </c>
-      <c r="H2" s="1">
-        <v>453840</v>
-      </c>
-      <c r="I2" s="1">
-        <v>306276</v>
-      </c>
-      <c r="J2" s="1">
-        <v>31446</v>
-      </c>
-      <c r="K2" s="1">
-        <v>16158</v>
+      <c r="B2">
+        <v>0.40380097999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.82654079999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.11274837</v>
+      </c>
+      <c r="E2">
+        <v>0.91401876999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.98421766000000011</v>
+      </c>
+      <c r="G2">
+        <v>0.79511062999999993</v>
+      </c>
+      <c r="H2">
+        <v>0.75896991999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.63214632000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.67459795999999994</v>
+      </c>
+      <c r="K2">
+        <v>0.68430367000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>134253</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3080526</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1146982</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1279861</v>
-      </c>
-      <c r="F3" s="1">
-        <v>162906</v>
-      </c>
-      <c r="G3" s="1">
-        <v>33958500</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1210849</v>
-      </c>
-      <c r="I3" s="1">
-        <v>700289</v>
-      </c>
-      <c r="J3" s="1">
-        <v>72316</v>
-      </c>
-      <c r="K3" s="1">
-        <v>28945</v>
+      <c r="B3">
+        <v>0.48380486</v>
+      </c>
+      <c r="C3">
+        <v>0.80252405999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.15014015</v>
+      </c>
+      <c r="E3">
+        <v>0.81155759999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.98273623999999993</v>
+      </c>
+      <c r="G3">
+        <v>0.78439966999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.73764339000000012</v>
+      </c>
+      <c r="I3">
+        <v>0.66067794000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.68476806000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.72587421000000008</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1042532</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8755687</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5397185</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3138522</v>
-      </c>
-      <c r="F4" s="1">
-        <v>628836</v>
-      </c>
-      <c r="G4" s="1">
-        <v>19025500</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3257999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1144062</v>
-      </c>
-      <c r="J4" s="1">
-        <v>296719</v>
-      </c>
-      <c r="K4" s="1">
-        <v>149267</v>
+      <c r="B4">
+        <v>0.28287037000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.92948132999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.10791189</v>
+      </c>
+      <c r="E4">
+        <v>0.7105842</v>
+      </c>
+      <c r="F4">
+        <v>0.96843413999999994</v>
+      </c>
+      <c r="G4">
+        <v>0.80583723000000007</v>
+      </c>
+      <c r="H4">
+        <v>0.72422302999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.65118714</v>
+      </c>
+      <c r="J4">
+        <v>0.82309270000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.75615211000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>2391970</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15612800</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5229598</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4871564</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3501384</v>
-      </c>
-      <c r="G5" s="1">
-        <v>22042600</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5811616</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3478519</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1652030</v>
-      </c>
-      <c r="K5" s="1">
-        <v>484611</v>
+      <c r="B5">
+        <v>0.53429989</v>
+      </c>
+      <c r="C5">
+        <v>0.78723243999999992</v>
+      </c>
+      <c r="D5">
+        <v>0.17978305</v>
+      </c>
+      <c r="E5">
+        <v>0.72358024999999992</v>
+      </c>
+      <c r="F5">
+        <v>0.94391972999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.84963241999999994</v>
+      </c>
+      <c r="H5">
+        <v>0.67097792000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.63981155000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.82912462000000009</v>
+      </c>
+      <c r="K5">
+        <v>0.83709577999999996</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1724134</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25694800</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7520637</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9822684</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4030290</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45893400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10779100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5359741</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2893866</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1769126</v>
+      <c r="B6">
+        <v>0.71096935000000006</v>
+      </c>
+      <c r="C6">
+        <v>0.80182721999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.26134328000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.59952513000000007</v>
+      </c>
+      <c r="F6">
+        <v>0.92915120000000007</v>
+      </c>
+      <c r="G6">
+        <v>0.78411499000000007</v>
+      </c>
+      <c r="H6">
+        <v>0.73275245999999994</v>
+      </c>
+      <c r="I6">
+        <v>0.6860927</v>
+      </c>
+      <c r="J6">
+        <v>0.83989968000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.71763501000000007</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1288213</v>
-      </c>
-      <c r="C7" s="1">
-        <v>24871600</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7638871</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9122328</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1689390</v>
-      </c>
-      <c r="G7" s="1">
-        <v>57235300</v>
-      </c>
-      <c r="H7" s="1">
-        <v>9426689</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5500611</v>
-      </c>
-      <c r="J7" s="1">
-        <v>968919</v>
-      </c>
-      <c r="K7" s="1">
-        <v>363521</v>
+      <c r="B7">
+        <v>0.46898265</v>
+      </c>
+      <c r="C7">
+        <v>0.73507095000000011</v>
+      </c>
+      <c r="D7">
+        <v>0.14485649</v>
+      </c>
+      <c r="E7">
+        <v>0.51584514000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.94814549999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.7495522200000001</v>
+      </c>
+      <c r="H7">
+        <v>0.70197935999999994</v>
+      </c>
+      <c r="I7">
+        <v>0.65859281999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.68781722000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.77240663999999992</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>2613298</v>
-      </c>
-      <c r="C8" s="1">
-        <v>55493700</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14561300</v>
-      </c>
-      <c r="E8" s="1">
-        <v>21053200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6344838</v>
-      </c>
-      <c r="G8" s="1">
-        <v>118501000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>21614000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>11346200</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2261762</v>
-      </c>
-      <c r="K8" s="1">
-        <v>746573</v>
+      <c r="B8">
+        <v>0.53673548999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.66303084000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.13520871000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.43323811000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.91237931000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.72857780999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.70951265000000008</v>
+      </c>
+      <c r="I8">
+        <v>0.66732838000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.72767033000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.78874830000000007</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>1262877</v>
-      </c>
-      <c r="C9" s="1">
-        <v>54489500</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21885800</v>
-      </c>
-      <c r="E9" s="1">
-        <v>22625700</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2438922</v>
-      </c>
-      <c r="G9" s="1">
-        <v>288828000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>21340800</v>
-      </c>
-      <c r="I9" s="1">
-        <v>13469500</v>
-      </c>
-      <c r="J9" s="1">
-        <v>731439</v>
-      </c>
-      <c r="K9" s="1">
-        <v>344219</v>
+      <c r="B9">
+        <v>0.57878613999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.90638797999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.29693729999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.44735987999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.98262000000000005</v>
+      </c>
+      <c r="G9">
+        <v>0.70224536999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.74993487000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.71341151999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.57552354999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.71367622999999991</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>37188400</v>
-      </c>
-      <c r="C10" s="1">
-        <v>133028000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>164855000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>48539400</v>
-      </c>
-      <c r="F10" s="1">
-        <v>24084700</v>
-      </c>
-      <c r="G10" s="1">
-        <v>217510000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>65645900</v>
-      </c>
-      <c r="I10" s="1">
-        <v>35174100</v>
-      </c>
-      <c r="J10" s="1">
-        <v>13002100</v>
-      </c>
-      <c r="K10" s="1">
-        <v>8156213</v>
+      <c r="B10">
+        <v>0.36128928000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.90802933999999991</v>
+      </c>
+      <c r="D10">
+        <v>8.9847059999999992E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.48647074000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.85617886999999993</v>
+      </c>
+      <c r="G10">
+        <v>0.86284554999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.64637004000000009</v>
+      </c>
+      <c r="I10">
+        <v>0.66668537000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.85299577999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.89627679999999998</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>12698700</v>
-      </c>
-      <c r="C11" s="1">
-        <v>163183000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>37688200</v>
-      </c>
-      <c r="E11" s="1">
-        <v>59805300</v>
-      </c>
-      <c r="F11" s="1">
-        <v>28352800</v>
-      </c>
-      <c r="G11" s="1">
-        <v>240859000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>72028700</v>
-      </c>
-      <c r="I11" s="1">
-        <v>34022300</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20029100</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10286600</v>
+      <c r="B11">
+        <v>0.75952538000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.75135964999999993</v>
+      </c>
+      <c r="D11">
+        <v>0.26865030000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.48682662999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.87229563999999993</v>
+      </c>
+      <c r="G11">
+        <v>0.80559758000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.70116917000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.65961828</v>
+      </c>
+      <c r="J11">
+        <v>0.83625507999999993</v>
+      </c>
+      <c r="K11">
+        <v>0.69924232000000008</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>43167800</v>
-      </c>
-      <c r="C12" s="1">
-        <v>298291000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>98465500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>103431000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>48437500</v>
-      </c>
-      <c r="G12" s="1">
-        <v>414939000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>119743000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>68682700</v>
-      </c>
-      <c r="J12" s="1">
-        <v>26544800</v>
-      </c>
-      <c r="K12" s="1">
-        <v>11918500</v>
+      <c r="B12">
+        <v>0.40905611999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.73978111999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.15332641</v>
+      </c>
+      <c r="E12">
+        <v>0.47215283999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.84291010999999993</v>
+      </c>
+      <c r="G12">
+        <v>0.81585059999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.67924122999999992</v>
+      </c>
+      <c r="I12">
+        <v>0.64994072000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.78673090999999995</v>
+      </c>
+      <c r="K12">
+        <v>0.80547376000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>22855700</v>
-      </c>
-      <c r="C13" s="1">
-        <v>376451000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>112072000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>144422000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>31691000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>631224000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>143937000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>79809400</v>
-      </c>
-      <c r="J13" s="1">
-        <v>15178400</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5202534</v>
+      <c r="B13">
+        <v>0.48081502999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.69739874999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.13682211999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.36061056999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.85844997000000012</v>
+      </c>
+      <c r="G13">
+        <v>0.73253606999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.71039105000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.67744322000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.70860856999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.82261840000000008</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>97399000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>726381000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>156518000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>213528000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>182725000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>793799000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>253612000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>141801000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>83411000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>19784000</v>
+      <c r="B14">
+        <v>0.59434924</v>
+      </c>
+      <c r="C14">
+        <v>0.7186747200000001</v>
+      </c>
+      <c r="D14">
+        <v>0.25504142000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.60213107999999993</v>
+      </c>
+      <c r="F14">
+        <v>0.8561135299999999</v>
+      </c>
+      <c r="G14">
+        <v>0.87219944999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.68101016999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.63428339</v>
+      </c>
+      <c r="J14">
+        <v>0.84338134999999992</v>
+      </c>
+      <c r="K14">
+        <v>0.89266418000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>470102000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1184930000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>551622000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>408280000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>493224000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1429670000</v>
-      </c>
-      <c r="H15" s="1">
-        <v>794607000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>424145000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>291913000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>149115000</v>
+      <c r="B15">
+        <v>0.49733634000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.80424046000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.22796252</v>
+      </c>
+      <c r="E15">
+        <v>0.73068951999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.82037982999999992</v>
+      </c>
+      <c r="G15">
+        <v>0.91282737000000003</v>
+      </c>
+      <c r="H15">
+        <v>0.61381187999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.63768321000000006</v>
+      </c>
+      <c r="J15">
+        <v>0.90731976000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.93968163999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>166382000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1097040000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>285313000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>350999000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>255082000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1289220000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>441413000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>238860000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>150890000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>53446800</v>
+      <c r="B16">
+        <v>0.55778072000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.72166449999999993</v>
+      </c>
+      <c r="D16">
+        <v>0.22637428000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.57152316999999997</v>
+      </c>
+      <c r="F16">
+        <v>0.81499466999999992</v>
+      </c>
+      <c r="G16">
+        <v>0.85713116</v>
+      </c>
+      <c r="H16">
+        <v>0.66815406999999993</v>
+      </c>
+      <c r="I16">
+        <v>0.64020411999999993</v>
+      </c>
+      <c r="J16">
+        <v>0.85495748000000005</v>
+      </c>
+      <c r="K16">
+        <v>0.87099619000000006</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>244733000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1403070000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>375641000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>456202000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>368304000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1631980000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>609617000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>318538000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>230537000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>84601700</v>
+      <c r="B17">
+        <v>0.55197015999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.72723936</v>
+      </c>
+      <c r="D17">
+        <v>0.23039116000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.59988301999999993</v>
+      </c>
+      <c r="F17">
+        <v>0.80391964999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.86497066</v>
+      </c>
+      <c r="H17">
+        <v>0.65597254000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.63957678000000007</v>
+      </c>
+      <c r="J17">
+        <v>0.87092212000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.87939606999999997</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>1528940000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5027570000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1188420000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1734130000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2279070000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5203260000</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3272880000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1320980000</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1459170000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>487376000</v>
+      <c r="B18">
+        <v>0.57770985000000008</v>
+      </c>
+      <c r="C18">
+        <v>0.75569381000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.30226775</v>
+      </c>
+      <c r="E18">
+        <v>0.77252032000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.8669241700000001</v>
+      </c>
+      <c r="G18">
+        <v>0.91383447000000007</v>
+      </c>
+      <c r="H18">
+        <v>0.61661476999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.61782843999999992</v>
+      </c>
+      <c r="J18">
+        <v>0.93565332000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.93143282999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>74720000000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>80920300000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>50952800000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>78923900000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>107191000000</v>
-      </c>
-      <c r="H19" s="1">
-        <v>329156000000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>25728100000</v>
-      </c>
-      <c r="J19" s="1">
-        <v>60373300000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>16885500000</v>
+      <c r="B19">
+        <v>0.40991152999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.81216080000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.88075011000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.7389060999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.90348547999999995</v>
+      </c>
+      <c r="H19">
+        <v>0.28451939999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.58028289</v>
+      </c>
+      <c r="J19">
+        <v>0.97125422000000006</v>
+      </c>
+      <c r="K19">
+        <v>0.94394867999999998</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>33914700000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>86663100000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>32560400000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>47182200000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>94472000000</v>
-      </c>
-      <c r="H20" s="1">
-        <v>71292300000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>27296400000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>30557000000</v>
-      </c>
-      <c r="K20" s="1">
-        <v>13066300000</v>
+      <c r="B20">
+        <v>0.59085644000000004</v>
+      </c>
+      <c r="C20">
+        <v>0.78271619000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.81097741999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.74847125000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.91978328000000009</v>
+      </c>
+      <c r="H20">
+        <v>0.61607252999999995</v>
+      </c>
+      <c r="I20">
+        <v>0.62954312000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.93187765</v>
+      </c>
+      <c r="K20">
+        <v>0.94508820000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1237,22 +1213,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB9085-7FDA-4057-8546-040AB420EFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A57F561-C364-4F29-897C-ABD2E628A672}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1279,10 +1255,10 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1290,34 +1266,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.0761099999999999</v>
+        <v>6.0759990000000004</v>
       </c>
       <c r="C2">
-        <v>1.4463200000000001</v>
+        <v>1.446321</v>
       </c>
       <c r="D2">
-        <v>1.34487</v>
+        <v>1.345313</v>
       </c>
       <c r="E2">
-        <v>1.1564000000000001</v>
+        <v>1.1563190000000001</v>
       </c>
       <c r="F2">
-        <v>6.5316099999999997</v>
+        <v>6.5304929999999999</v>
       </c>
       <c r="G2">
-        <v>1.23264</v>
+        <v>1.232645</v>
       </c>
       <c r="H2">
-        <v>1.16544</v>
+        <v>1.165395</v>
       </c>
       <c r="I2">
-        <v>1.19156</v>
+        <v>1.191533</v>
       </c>
       <c r="J2">
-        <v>8.6341000000000001</v>
+        <v>8.6304780000000001</v>
       </c>
       <c r="K2">
-        <v>9.4905899999999992</v>
+        <v>9.4564869999999992</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1325,34 +1301,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.15916</v>
+        <v>6.1591699999999996</v>
       </c>
       <c r="C3">
-        <v>1.2186900000000001</v>
+        <v>1.2186790000000001</v>
       </c>
       <c r="D3">
-        <v>1.3265899999999999</v>
+        <v>1.3265739999999999</v>
       </c>
       <c r="E3">
-        <v>1.0860099999999999</v>
+        <v>1.0860300000000001</v>
       </c>
       <c r="F3">
-        <v>6.7070800000000004</v>
+        <v>6.7101459999999999</v>
       </c>
       <c r="G3">
         <v>1.32636</v>
       </c>
       <c r="H3">
-        <v>1.0828199999999999</v>
+        <v>1.0828059999999999</v>
       </c>
       <c r="I3">
-        <v>1.1576599999999999</v>
+        <v>1.157645</v>
       </c>
       <c r="J3">
-        <v>9.75976</v>
+        <v>9.7746969999999997</v>
       </c>
       <c r="K3">
-        <v>12.841939999999999</v>
+        <v>12.811954</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1360,104 +1336,104 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.9487699999999997</v>
+        <v>4.9484820000000003</v>
       </c>
       <c r="C4">
-        <v>2.1270500000000001</v>
+        <v>2.1270600000000002</v>
       </c>
       <c r="D4">
-        <v>1.3677600000000001</v>
+        <v>1.367767</v>
       </c>
       <c r="E4">
-        <v>1.3574299999999999</v>
+        <v>1.35734</v>
       </c>
       <c r="F4">
-        <v>7.3940099999999997</v>
+        <v>7.3949639999999999</v>
       </c>
       <c r="G4">
-        <v>1.6028500000000001</v>
+        <v>1.6028610000000001</v>
       </c>
       <c r="H4">
-        <v>1.3433299999999999</v>
+        <v>1.3433200000000001</v>
       </c>
       <c r="I4">
-        <v>1.3805799999999999</v>
+        <v>1.3806229999999999</v>
       </c>
       <c r="J4">
-        <v>8.2464399999999998</v>
+        <v>8.2604690000000005</v>
       </c>
       <c r="K4">
-        <v>5.9964500000000003</v>
+        <v>5.9938039999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6.8074500000000002</v>
+        <v>6.8074320000000004</v>
       </c>
       <c r="C5">
-        <v>4.3563000000000001</v>
+        <v>4.356293</v>
       </c>
       <c r="D5">
-        <v>3.2051099999999999</v>
+        <v>3.2051970000000001</v>
       </c>
       <c r="E5">
-        <v>1.9640899999999999</v>
+        <v>1.9643390000000001</v>
       </c>
       <c r="F5">
-        <v>6.4672799999999997</v>
+        <v>6.4680780000000002</v>
       </c>
       <c r="G5">
-        <v>1.3710199999999999</v>
+        <v>1.371022</v>
       </c>
       <c r="H5">
-        <v>1.83917</v>
+        <v>1.8391770000000001</v>
       </c>
       <c r="I5">
-        <v>1.51915</v>
+        <v>1.5191870000000001</v>
       </c>
       <c r="J5">
-        <v>6.05037</v>
+        <v>6.0575450000000002</v>
       </c>
       <c r="K5">
-        <v>6.5885199999999999</v>
+        <v>6.610589</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>6.9553599999999998</v>
+        <v>6.9553849999999997</v>
       </c>
       <c r="C6">
-        <v>3.5054799999999999</v>
+        <v>3.5054609999999999</v>
       </c>
       <c r="D6">
-        <v>2.3577499999999998</v>
+        <v>2.3577819999999998</v>
       </c>
       <c r="E6">
-        <v>1.57254</v>
+        <v>1.572659</v>
       </c>
       <c r="F6">
-        <v>4.9970299999999996</v>
+        <v>4.9971649999999999</v>
       </c>
       <c r="G6">
-        <v>2.14635</v>
+        <v>2.1463290000000002</v>
       </c>
       <c r="H6">
-        <v>1.57816</v>
+        <v>1.578157</v>
       </c>
       <c r="I6">
-        <v>1.3189</v>
+        <v>1.3189200000000001</v>
       </c>
       <c r="J6">
-        <v>4.5396400000000003</v>
+        <v>4.5428759999999997</v>
       </c>
       <c r="K6">
-        <v>3.0708500000000001</v>
+        <v>3.0762</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1465,34 +1441,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.9338199999999999</v>
+        <v>6.9338600000000001</v>
       </c>
       <c r="C7">
-        <v>1.62598</v>
+        <v>1.625977</v>
       </c>
       <c r="D7">
-        <v>1.67313</v>
+        <v>1.673138</v>
       </c>
       <c r="E7">
-        <v>1.1731799999999999</v>
+        <v>1.1731860000000001</v>
       </c>
       <c r="F7">
-        <v>7.3281000000000001</v>
+        <v>7.3290389999999999</v>
       </c>
       <c r="G7">
-        <v>2.0954700000000002</v>
+        <v>2.0954649999999999</v>
       </c>
       <c r="H7">
-        <v>1.2224999999999999</v>
+        <v>1.22251</v>
       </c>
       <c r="I7">
-        <v>1.22725</v>
+        <v>1.2272339999999999</v>
       </c>
       <c r="J7">
-        <v>7.5995400000000002</v>
+        <v>7.5954709999999999</v>
       </c>
       <c r="K7">
-        <v>9.4995999999999992</v>
+        <v>9.4993909999999993</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1500,34 +1476,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.0332499999999998</v>
+        <v>7.0331539999999997</v>
       </c>
       <c r="C8">
-        <v>1.5541499999999999</v>
+        <v>1.554149</v>
       </c>
       <c r="D8">
-        <v>1.82446</v>
+        <v>1.8244530000000001</v>
       </c>
       <c r="E8">
-        <v>1.1589</v>
+        <v>1.15893</v>
       </c>
       <c r="F8">
-        <v>6.5025500000000003</v>
+        <v>6.5026869999999999</v>
       </c>
       <c r="G8">
-        <v>2.0688900000000001</v>
+        <v>2.0688930000000001</v>
       </c>
       <c r="H8">
-        <v>1.20808</v>
+        <v>1.2080709999999999</v>
       </c>
       <c r="I8">
-        <v>1.24797</v>
+        <v>1.2479560000000001</v>
       </c>
       <c r="J8">
-        <v>7.9264599999999996</v>
+        <v>7.9187459999999996</v>
       </c>
       <c r="K8">
-        <v>9.9638899999999992</v>
+        <v>9.964753</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1535,34 +1511,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.17835</v>
+        <v>6.1785990000000002</v>
       </c>
       <c r="C9">
-        <v>1.02183</v>
+        <v>1.0218339999999999</v>
       </c>
       <c r="D9">
-        <v>1.1114599999999999</v>
+        <v>1.111462</v>
       </c>
       <c r="E9">
-        <v>1.0182899999999999</v>
+        <v>1.0182910000000001</v>
       </c>
       <c r="F9">
-        <v>7.0555099999999999</v>
+        <v>7.0557509999999999</v>
       </c>
       <c r="G9">
-        <v>3.2263199999999999</v>
+        <v>3.2263630000000001</v>
       </c>
       <c r="H9">
-        <v>1.01861</v>
+        <v>1.0186010000000001</v>
       </c>
       <c r="I9">
-        <v>1.0420199999999999</v>
+        <v>1.0420020000000001</v>
       </c>
       <c r="J9">
-        <v>9.2791300000000003</v>
+        <v>9.2868499999999994</v>
       </c>
       <c r="K9">
-        <v>11.318059999999999</v>
+        <v>11.316642999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1570,34 +1546,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.3567400000000003</v>
+        <v>6.356738</v>
       </c>
       <c r="C10">
-        <v>5.8123199999999997</v>
+        <v>5.8123240000000003</v>
       </c>
       <c r="D10">
-        <v>1.7682800000000001</v>
+        <v>1.7682819999999999</v>
       </c>
       <c r="E10">
-        <v>2.4282900000000001</v>
+        <v>2.4282729999999999</v>
       </c>
       <c r="F10">
-        <v>7.1075799999999996</v>
+        <v>7.1086109999999998</v>
       </c>
       <c r="G10">
-        <v>1.33321</v>
+        <v>1.3332189999999999</v>
       </c>
       <c r="H10">
-        <v>2.0596199999999998</v>
+        <v>2.0596179999999999</v>
       </c>
       <c r="I10">
-        <v>1.6086100000000001</v>
+        <v>1.6085560000000001</v>
       </c>
       <c r="J10">
-        <v>7.2005800000000004</v>
+        <v>7.2156560000000001</v>
       </c>
       <c r="K10">
-        <v>4.3810799999999999</v>
+        <v>4.3822219999999996</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1605,34 +1581,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.0049000000000001</v>
+        <v>7.0048399999999997</v>
       </c>
       <c r="C11">
-        <v>3.88869</v>
+        <v>3.8886769999999999</v>
       </c>
       <c r="D11">
-        <v>2.8658700000000001</v>
+        <v>2.8657659999999998</v>
       </c>
       <c r="E11">
-        <v>1.67174</v>
+        <v>1.671799</v>
       </c>
       <c r="F11">
-        <v>4.6505099999999997</v>
+        <v>4.6502679999999996</v>
       </c>
       <c r="G11">
-        <v>2.0299200000000002</v>
+        <v>2.029935</v>
       </c>
       <c r="H11">
-        <v>1.72105</v>
+        <v>1.7210490000000001</v>
       </c>
       <c r="I11">
-        <v>1.3802000000000001</v>
+        <v>1.3801220000000001</v>
       </c>
       <c r="J11">
-        <v>4.40489</v>
+        <v>4.4075870000000004</v>
       </c>
       <c r="K11">
-        <v>3.5734499999999998</v>
+        <v>3.5732520000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1640,34 +1616,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.6407499999999997</v>
+        <v>5.6406900000000002</v>
       </c>
       <c r="C12">
-        <v>3.9109699999999998</v>
+        <v>3.9109750000000001</v>
       </c>
       <c r="D12">
-        <v>2.7975599999999998</v>
+        <v>2.7975989999999999</v>
       </c>
       <c r="E12">
-        <v>1.6999200000000001</v>
+        <v>1.69994</v>
       </c>
       <c r="F12">
-        <v>5.6810700000000001</v>
+        <v>5.6809940000000001</v>
       </c>
       <c r="G12">
-        <v>1.7292099999999999</v>
+        <v>1.729228</v>
       </c>
       <c r="H12">
-        <v>1.6834800000000001</v>
+        <v>1.683476</v>
       </c>
       <c r="I12">
-        <v>1.44198</v>
+        <v>1.4419729999999999</v>
       </c>
       <c r="J12">
-        <v>6.24641</v>
+        <v>6.2513719999999999</v>
       </c>
       <c r="K12">
-        <v>5.0120100000000001</v>
+        <v>5.0112769999999998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1675,34 +1651,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.6877700000000004</v>
+        <v>6.687703</v>
       </c>
       <c r="C13">
         <v>1.65276</v>
       </c>
       <c r="D13">
-        <v>1.80602</v>
+        <v>1.8060229999999999</v>
       </c>
       <c r="E13">
-        <v>1.1867399999999999</v>
+        <v>1.186736</v>
       </c>
       <c r="F13">
-        <v>7.4304399999999999</v>
+        <v>7.4301909999999998</v>
       </c>
       <c r="G13">
-        <v>2.56521</v>
+        <v>2.5651790000000001</v>
       </c>
       <c r="H13">
-        <v>1.20743</v>
+        <v>1.2074279999999999</v>
       </c>
       <c r="I13">
-        <v>1.27477</v>
+        <v>1.274764</v>
       </c>
       <c r="J13">
-        <v>8.2538199999999993</v>
+        <v>8.2605059999999995</v>
       </c>
       <c r="K13">
-        <v>11.666689999999999</v>
+        <v>11.666764000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1710,34 +1686,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.2002199999999998</v>
+        <v>7.2001710000000001</v>
       </c>
       <c r="C14">
-        <v>4.3066500000000003</v>
+        <v>4.3066459999999998</v>
       </c>
       <c r="D14">
-        <v>4.2133200000000004</v>
+        <v>4.2133029999999998</v>
       </c>
       <c r="E14">
-        <v>1.9468399999999999</v>
+        <v>1.9467369999999999</v>
       </c>
       <c r="F14">
-        <v>7.5814199999999996</v>
+        <v>7.5826710000000004</v>
       </c>
       <c r="G14">
-        <v>1.50817</v>
+        <v>1.5081690000000001</v>
       </c>
       <c r="H14">
-        <v>1.8667400000000001</v>
+        <v>1.866735</v>
       </c>
       <c r="I14">
-        <v>1.5577000000000001</v>
+        <v>1.5577110000000001</v>
       </c>
       <c r="J14">
-        <v>5.6607599999999998</v>
+        <v>5.6582160000000004</v>
       </c>
       <c r="K14">
-        <v>7.1393899999999997</v>
+        <v>7.1394209999999996</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1745,34 +1721,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.6060299999999996</v>
+        <v>7.6059970000000003</v>
       </c>
       <c r="C15">
-        <v>12.312709999999999</v>
+        <v>12.312707</v>
       </c>
       <c r="D15">
-        <v>5.4866799999999998</v>
+        <v>5.4866970000000004</v>
       </c>
       <c r="E15">
-        <v>4.0473400000000002</v>
+        <v>4.0473270000000001</v>
       </c>
       <c r="F15">
-        <v>8.5898900000000005</v>
+        <v>8.5906990000000008</v>
       </c>
       <c r="G15">
-        <v>1.33521</v>
+        <v>1.3352489999999999</v>
       </c>
       <c r="H15">
-        <v>2.7667099999999998</v>
+        <v>2.766705</v>
       </c>
       <c r="I15">
-        <v>1.7585999999999999</v>
+        <v>1.7586200000000001</v>
       </c>
       <c r="J15">
-        <v>6.3910799999999997</v>
+        <v>6.3909690000000001</v>
       </c>
       <c r="K15">
-        <v>3.55138</v>
+        <v>3.5512419999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1780,34 +1756,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.24993</v>
+        <v>7.2499450000000003</v>
       </c>
       <c r="C16">
-        <v>5.1726999999999999</v>
+        <v>5.1726970000000003</v>
       </c>
       <c r="D16">
-        <v>4.0561699999999998</v>
+        <v>4.0561660000000002</v>
       </c>
       <c r="E16">
-        <v>2.1167199999999999</v>
+        <v>2.1166870000000002</v>
       </c>
       <c r="F16">
-        <v>7.2650199999999998</v>
+        <v>7.264767</v>
       </c>
       <c r="G16">
-        <v>1.5368299999999999</v>
+        <v>1.536834</v>
       </c>
       <c r="H16">
-        <v>1.99743</v>
+        <v>1.997438</v>
       </c>
       <c r="I16">
-        <v>1.5570200000000001</v>
+        <v>1.5570379999999999</v>
       </c>
       <c r="J16">
-        <v>5.5546199999999999</v>
+        <v>5.5562420000000001</v>
       </c>
       <c r="K16">
-        <v>4.6993099999999997</v>
+        <v>4.6992789999999998</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1815,34 +1791,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.2276600000000002</v>
+        <v>7.2277079999999998</v>
       </c>
       <c r="C17">
-        <v>6.1096700000000004</v>
+        <v>6.1097770000000002</v>
       </c>
       <c r="D17">
-        <v>4.4064199999999998</v>
+        <v>4.4066029999999996</v>
       </c>
       <c r="E17">
-        <v>2.3634200000000001</v>
+        <v>2.363286</v>
       </c>
       <c r="F17">
-        <v>7.23203</v>
+        <v>7.2319009999999997</v>
       </c>
       <c r="G17">
-        <v>1.5125299999999999</v>
+        <v>1.5125169999999999</v>
       </c>
       <c r="H17">
-        <v>2.1505899999999998</v>
+        <v>2.1506289999999999</v>
       </c>
       <c r="I17">
-        <v>1.5946199999999999</v>
+        <v>1.594428</v>
       </c>
       <c r="J17">
-        <v>5.3675199999999998</v>
+        <v>5.3687269999999998</v>
       </c>
       <c r="K17">
-        <v>4.1827100000000002</v>
+        <v>4.1825650000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,60 +1826,63 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.6501700000000001</v>
+        <v>7.6501720000000004</v>
       </c>
       <c r="C18">
-        <v>11.15935</v>
+        <v>11.159348</v>
       </c>
       <c r="D18">
-        <v>8.0252599999999994</v>
+        <v>8.0250260000000004</v>
       </c>
       <c r="E18">
-        <v>3.5057200000000002</v>
+        <v>3.5050560000000002</v>
       </c>
       <c r="F18">
-        <v>7.3078700000000003</v>
+        <v>7.3069300000000004</v>
       </c>
       <c r="G18">
-        <v>1.3720300000000001</v>
+        <v>1.3721829999999999</v>
       </c>
       <c r="H18">
-        <v>2.77189</v>
+        <v>2.772024</v>
       </c>
       <c r="I18">
-        <v>1.78348</v>
+        <v>1.7834779999999999</v>
       </c>
       <c r="J18">
-        <v>5.0393800000000004</v>
+        <v>5.0394040000000002</v>
       </c>
       <c r="K18">
-        <v>3.5534400000000002</v>
+        <v>3.5533610000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0.78135399999999999</v>
+      </c>
       <c r="C19">
-        <v>3.6254</v>
+        <v>3.6299950000000001</v>
       </c>
       <c r="E19">
-        <v>4.8226599999999999</v>
+        <v>4.8227070000000003</v>
       </c>
       <c r="F19">
-        <v>6.45824</v>
+        <v>6.4583719999999998</v>
       </c>
       <c r="G19">
-        <v>1.5208999999999999</v>
+        <v>1.5209189999999999</v>
       </c>
       <c r="I19">
-        <v>2.5826099999999999</v>
+        <v>2.5826310000000001</v>
       </c>
       <c r="J19">
-        <v>5.7358500000000001</v>
+        <v>5.7359340000000003</v>
       </c>
       <c r="K19">
-        <v>3.5601500000000001</v>
+        <v>3.5600700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1911,54 +1890,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.7991799999999998</v>
+        <v>7.7991979999999996</v>
+      </c>
+      <c r="C20">
+        <v>0.886818</v>
       </c>
       <c r="E20">
-        <v>4.2184999999999997</v>
+        <v>4.2185670000000002</v>
       </c>
       <c r="F20">
-        <v>8.6159400000000002</v>
+        <v>8.6156930000000003</v>
       </c>
       <c r="G20">
-        <v>1.3884399999999999</v>
+        <v>1.3883859999999999</v>
       </c>
       <c r="H20">
-        <v>2.93912</v>
+        <v>2.9391289999999999</v>
       </c>
       <c r="I20">
-        <v>1.8463799999999999</v>
+        <v>1.8463890000000001</v>
       </c>
       <c r="J20">
-        <v>5.4485099999999997</v>
+        <v>5.4485080000000004</v>
       </c>
       <c r="K20">
-        <v>2.99105</v>
+        <v>2.9909859999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA1757D-9EE8-4B7E-8E4A-E712974E1C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5348AF-200F-4279-97B3-6315723C6778}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1985,10 +1968,10 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1996,34 +1979,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.40379999999999999</v>
+        <v>79540</v>
       </c>
       <c r="C2">
-        <v>0.82654000000000005</v>
+        <v>1226565</v>
       </c>
       <c r="D2">
-        <v>0.11275</v>
+        <v>553860</v>
       </c>
       <c r="E2">
-        <v>0.91402000000000005</v>
+        <v>467896</v>
       </c>
       <c r="F2">
-        <v>0.98421999999999998</v>
+        <v>11388</v>
       </c>
       <c r="G2">
-        <v>0.79510999999999998</v>
+        <v>9797941</v>
       </c>
       <c r="H2">
-        <v>0.75897000000000003</v>
+        <v>453840</v>
       </c>
       <c r="I2">
-        <v>0.63219999999999998</v>
+        <v>306276</v>
       </c>
       <c r="J2">
-        <v>0.65849999999999997</v>
+        <v>31446</v>
       </c>
       <c r="K2">
-        <v>0.80837000000000003</v>
+        <v>16156</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2031,34 +2014,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.48380000000000001</v>
+        <v>134253</v>
       </c>
       <c r="C3">
-        <v>0.80252000000000001</v>
+        <v>3080526</v>
       </c>
       <c r="D3">
-        <v>0.15014</v>
+        <v>1146982</v>
       </c>
       <c r="E3">
-        <v>0.81155999999999995</v>
+        <v>1279861</v>
       </c>
       <c r="F3">
-        <v>0.98273999999999995</v>
+        <v>27151</v>
       </c>
       <c r="G3">
-        <v>0.78439999999999999</v>
+        <v>33958490</v>
       </c>
       <c r="H3">
-        <v>0.73763999999999996</v>
+        <v>1210849</v>
       </c>
       <c r="I3">
-        <v>0.66066000000000003</v>
+        <v>700289</v>
       </c>
       <c r="J3">
-        <v>0.67798000000000003</v>
+        <v>72316</v>
       </c>
       <c r="K3">
-        <v>0.77661000000000002</v>
+        <v>28945</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2066,34 +2049,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.28287000000000001</v>
+        <v>1042532</v>
       </c>
       <c r="C4">
-        <v>0.92947999999999997</v>
+        <v>8755687</v>
       </c>
       <c r="D4">
-        <v>0.10791000000000001</v>
+        <v>5397185</v>
       </c>
       <c r="E4">
-        <v>0.71057999999999999</v>
+        <v>3138522</v>
       </c>
       <c r="F4">
-        <v>0.96843000000000001</v>
+        <v>104806</v>
       </c>
       <c r="G4">
-        <v>0.80584</v>
+        <v>19025494</v>
       </c>
       <c r="H4">
-        <v>0.72421999999999997</v>
+        <v>3257999</v>
       </c>
       <c r="I4">
-        <v>0.65117000000000003</v>
+        <v>1144062</v>
       </c>
       <c r="J4">
-        <v>0.81669000000000003</v>
+        <v>296719</v>
       </c>
       <c r="K4">
-        <v>0.84333999999999998</v>
+        <v>149297</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2101,66 +2084,69 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5343</v>
+        <v>2391970</v>
       </c>
       <c r="C5">
-        <v>0.78722999999999999</v>
+        <v>15612804</v>
       </c>
       <c r="D5">
-        <v>0.17978</v>
+        <v>5229598</v>
       </c>
       <c r="E5">
-        <v>0.72358</v>
+        <v>4871564</v>
       </c>
       <c r="F5">
-        <v>0.94391999999999998</v>
+        <v>583564</v>
       </c>
       <c r="G5">
-        <v>0.84963</v>
+        <v>22042586</v>
       </c>
       <c r="H5">
-        <v>0.67098000000000002</v>
+        <v>5811616</v>
       </c>
       <c r="I5">
-        <v>0.63980999999999999</v>
+        <v>3478519</v>
       </c>
       <c r="J5">
-        <v>0.82706999999999997</v>
+        <v>1652030</v>
       </c>
       <c r="K5">
-        <v>0.87258000000000002</v>
+        <v>484560</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1724134</v>
+      </c>
       <c r="C6">
-        <v>0.80183000000000004</v>
+        <v>25694814</v>
       </c>
       <c r="D6">
-        <v>0.26134000000000002</v>
+        <v>7520637</v>
       </c>
       <c r="E6">
-        <v>0.59953000000000001</v>
+        <v>9822684</v>
       </c>
       <c r="F6">
-        <v>0.92915000000000003</v>
+        <v>671715</v>
       </c>
       <c r="G6">
-        <v>0.78410999999999997</v>
+        <v>45893414</v>
       </c>
       <c r="H6">
-        <v>0.73275000000000001</v>
+        <v>10779053</v>
       </c>
       <c r="I6">
-        <v>0.68616999999999995</v>
+        <v>5359741</v>
       </c>
       <c r="J6">
-        <v>0.83872999999999998</v>
+        <v>2893866</v>
       </c>
       <c r="K6">
-        <v>0.71758999999999995</v>
+        <v>1766441</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2168,34 +2154,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.46898000000000001</v>
+        <v>1288213</v>
       </c>
       <c r="C7">
-        <v>0.73507</v>
+        <v>24871648</v>
       </c>
       <c r="D7">
-        <v>0.14485999999999999</v>
+        <v>7638871</v>
       </c>
       <c r="E7">
-        <v>0.51585000000000003</v>
+        <v>9122328</v>
       </c>
       <c r="F7">
-        <v>0.94815000000000005</v>
+        <v>281565</v>
       </c>
       <c r="G7">
-        <v>0.74955000000000005</v>
+        <v>57235324</v>
       </c>
       <c r="H7">
-        <v>0.70198000000000005</v>
+        <v>9426689</v>
       </c>
       <c r="I7">
-        <v>0.65854999999999997</v>
+        <v>5500611</v>
       </c>
       <c r="J7">
-        <v>0.68659000000000003</v>
+        <v>968919</v>
       </c>
       <c r="K7">
-        <v>0.78898999999999997</v>
+        <v>363569</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2203,34 +2189,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.53673999999999999</v>
+        <v>2613298</v>
       </c>
       <c r="C8">
-        <v>0.66303000000000001</v>
+        <v>55493730</v>
       </c>
       <c r="D8">
-        <v>0.13521</v>
+        <v>14561275</v>
       </c>
       <c r="E8">
-        <v>0.43324000000000001</v>
+        <v>21053186</v>
       </c>
       <c r="F8">
-        <v>0.91237999999999997</v>
+        <v>1057473</v>
       </c>
       <c r="G8">
-        <v>0.72858000000000001</v>
+        <v>118500873</v>
       </c>
       <c r="H8">
-        <v>0.70950999999999997</v>
+        <v>21613976</v>
       </c>
       <c r="I8">
-        <v>0.6673</v>
+        <v>11346193</v>
       </c>
       <c r="J8">
-        <v>0.72702999999999995</v>
+        <v>2261762</v>
       </c>
       <c r="K8">
-        <v>0.78874</v>
+        <v>746551</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2238,34 +2224,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.57879000000000003</v>
+        <v>1262877</v>
       </c>
       <c r="C9">
-        <v>0.90639000000000003</v>
+        <v>54489459</v>
       </c>
       <c r="D9">
-        <v>0.29693999999999998</v>
+        <v>21885814</v>
       </c>
       <c r="E9">
-        <v>0.44735999999999998</v>
+        <v>22625676</v>
       </c>
       <c r="F9">
-        <v>0.98262000000000005</v>
+        <v>406487</v>
       </c>
       <c r="G9">
-        <v>0.70225000000000004</v>
+        <v>288828199</v>
       </c>
       <c r="H9">
-        <v>0.74992999999999999</v>
+        <v>21340837</v>
       </c>
       <c r="I9">
-        <v>0.71340999999999999</v>
+        <v>13469519</v>
       </c>
       <c r="J9">
-        <v>0.57518999999999998</v>
+        <v>731439</v>
       </c>
       <c r="K9">
-        <v>0.7137</v>
+        <v>344217</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2273,66 +2259,69 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.36129</v>
+        <v>37188435</v>
       </c>
       <c r="C10">
-        <v>0.90803</v>
+        <v>133028231</v>
       </c>
       <c r="D10">
-        <v>8.9849999999999999E-2</v>
+        <v>164855310</v>
       </c>
       <c r="E10">
-        <v>0.48647000000000001</v>
+        <v>48539393</v>
       </c>
       <c r="F10">
-        <v>0.85618000000000005</v>
+        <v>4014121</v>
       </c>
       <c r="G10">
-        <v>0.86285000000000001</v>
+        <v>217509649</v>
       </c>
       <c r="H10">
-        <v>0.64637</v>
+        <v>65645936</v>
       </c>
       <c r="I10">
-        <v>0.66666999999999998</v>
+        <v>35174125</v>
       </c>
       <c r="J10">
-        <v>0.85268999999999995</v>
+        <v>13002124</v>
       </c>
       <c r="K10">
-        <v>0.89624000000000004</v>
+        <v>8156221</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>12698660</v>
+      </c>
       <c r="C11">
-        <v>0.75136000000000003</v>
+        <v>163183144</v>
       </c>
       <c r="D11">
-        <v>0.26865</v>
+        <v>37688192</v>
       </c>
       <c r="E11">
-        <v>0.48682999999999998</v>
+        <v>59805343</v>
       </c>
       <c r="F11">
-        <v>0.87229999999999996</v>
+        <v>4725462</v>
       </c>
       <c r="G11">
-        <v>0.80559999999999998</v>
+        <v>240859015</v>
       </c>
       <c r="H11">
-        <v>0.70116999999999996</v>
+        <v>72028669</v>
       </c>
       <c r="I11">
-        <v>0.65961999999999998</v>
+        <v>34022283</v>
       </c>
       <c r="J11">
-        <v>0.83603000000000005</v>
+        <v>20029061</v>
       </c>
       <c r="K11">
-        <v>0.69911000000000001</v>
+        <v>10287584</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2340,34 +2329,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.40905999999999998</v>
+        <v>43167751</v>
       </c>
       <c r="C12">
-        <v>0.73977999999999999</v>
+        <v>298290946</v>
       </c>
       <c r="D12">
-        <v>0.15332999999999999</v>
+        <v>98465477</v>
       </c>
       <c r="E12">
-        <v>0.47215000000000001</v>
+        <v>103431272</v>
       </c>
       <c r="F12">
-        <v>0.84291000000000005</v>
+        <v>8072916</v>
       </c>
       <c r="G12">
-        <v>0.81584999999999996</v>
+        <v>414939287</v>
       </c>
       <c r="H12">
-        <v>0.67923999999999995</v>
+        <v>119743196</v>
       </c>
       <c r="I12">
-        <v>0.64992000000000005</v>
+        <v>68682736</v>
       </c>
       <c r="J12">
-        <v>0.78652</v>
+        <v>26544808</v>
       </c>
       <c r="K12">
-        <v>0.80545</v>
+        <v>11919583</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2375,34 +2364,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.48082000000000003</v>
+        <v>22855690</v>
       </c>
       <c r="C13">
-        <v>0.69740000000000002</v>
+        <v>376450607</v>
       </c>
       <c r="D13">
-        <v>0.13682</v>
+        <v>112072035</v>
       </c>
       <c r="E13">
-        <v>0.36060999999999999</v>
+        <v>144421794</v>
       </c>
       <c r="F13">
-        <v>0.85845000000000005</v>
+        <v>5281836</v>
       </c>
       <c r="G13">
-        <v>0.73253999999999997</v>
+        <v>631223846</v>
       </c>
       <c r="H13">
-        <v>0.71038999999999997</v>
+        <v>143936709</v>
       </c>
       <c r="I13">
-        <v>0.67744000000000004</v>
+        <v>79809399</v>
       </c>
       <c r="J13">
-        <v>0.70823000000000003</v>
+        <v>15178391</v>
       </c>
       <c r="K13">
-        <v>0.82264999999999999</v>
+        <v>5202541</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2410,34 +2399,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.59435000000000004</v>
+        <v>97399027</v>
       </c>
       <c r="C14">
-        <v>0.71867000000000003</v>
+        <v>726380586</v>
       </c>
       <c r="D14">
-        <v>0.25503999999999999</v>
+        <v>156518133</v>
       </c>
       <c r="E14">
-        <v>0.60213000000000005</v>
+        <v>213528265</v>
       </c>
       <c r="F14">
-        <v>0.85611000000000004</v>
+        <v>30454150</v>
       </c>
       <c r="G14">
-        <v>0.87219999999999998</v>
+        <v>793799268</v>
       </c>
       <c r="H14">
-        <v>0.68101</v>
+        <v>253611943</v>
       </c>
       <c r="I14">
-        <v>0.63427999999999995</v>
+        <v>141801296</v>
       </c>
       <c r="J14">
-        <v>0.84326000000000001</v>
+        <v>83410957</v>
       </c>
       <c r="K14">
-        <v>0.89268000000000003</v>
+        <v>19783811</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2445,31 +2434,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.49734</v>
+        <v>470101628</v>
       </c>
       <c r="C15">
-        <v>0.80423999999999995</v>
+        <v>1184932452</v>
       </c>
       <c r="D15">
-        <v>0.22796</v>
+        <v>551622055</v>
       </c>
       <c r="E15">
-        <v>0.73068999999999995</v>
+        <v>408279882</v>
       </c>
       <c r="F15">
-        <v>0.82038</v>
+        <v>82203996</v>
       </c>
       <c r="G15">
-        <v>0.91283000000000003</v>
+        <v>1429670152</v>
+      </c>
+      <c r="H15">
+        <v>794607443</v>
       </c>
       <c r="I15">
-        <v>0.63770000000000004</v>
+        <v>424144707</v>
       </c>
       <c r="J15">
-        <v>0.90727999999999998</v>
+        <v>291912635</v>
       </c>
       <c r="K15">
-        <v>0.93967999999999996</v>
+        <v>149114811</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2477,34 +2469,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.55778000000000005</v>
+        <v>166382154</v>
       </c>
       <c r="C16">
-        <v>0.72165999999999997</v>
+        <v>1097041861</v>
       </c>
       <c r="D16">
-        <v>0.22636999999999999</v>
+        <v>285312578</v>
       </c>
       <c r="E16">
-        <v>0.57152000000000003</v>
+        <v>350999087</v>
       </c>
       <c r="F16">
-        <v>0.81498999999999999</v>
+        <v>42513664</v>
       </c>
       <c r="G16">
-        <v>0.85712999999999995</v>
+        <v>1289217818</v>
       </c>
       <c r="H16">
-        <v>0.66815000000000002</v>
+        <v>441412697</v>
       </c>
       <c r="I16">
-        <v>0.64020999999999995</v>
+        <v>238860068</v>
       </c>
       <c r="J16">
-        <v>0.85487000000000002</v>
+        <v>150890037</v>
       </c>
       <c r="K16">
-        <v>0.87099000000000004</v>
+        <v>53446091</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2512,34 +2504,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.55196999999999996</v>
+        <v>244732710</v>
       </c>
       <c r="C17">
-        <v>0.72724</v>
+        <v>1402920691</v>
       </c>
       <c r="D17">
-        <v>0.23039000000000001</v>
+        <v>375628134</v>
       </c>
       <c r="E17">
-        <v>0.59987999999999997</v>
+        <v>456202135</v>
       </c>
       <c r="F17">
-        <v>0.80391999999999997</v>
+        <v>61384048</v>
       </c>
       <c r="G17">
-        <v>0.86497000000000002</v>
+        <v>1631982712</v>
       </c>
       <c r="H17">
-        <v>0.65597000000000005</v>
+        <v>609617223</v>
       </c>
       <c r="I17">
-        <v>0.63958000000000004</v>
+        <v>318538201</v>
       </c>
       <c r="J17">
-        <v>0.87085000000000001</v>
+        <v>230537257</v>
       </c>
       <c r="K17">
-        <v>0.87941999999999998</v>
+        <v>84605818</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2547,34 +2539,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.57770999999999995</v>
+        <v>1528944333</v>
       </c>
       <c r="C18">
-        <v>0.75568999999999997</v>
+        <v>5027572549</v>
       </c>
       <c r="D18">
-        <v>0.30226999999999998</v>
+        <v>1188423985</v>
       </c>
       <c r="E18">
-        <v>0.77251999999999998</v>
+        <v>1734416751</v>
       </c>
       <c r="F18">
-        <v>0.86692000000000002</v>
+        <v>379844862</v>
       </c>
       <c r="G18">
-        <v>0.91383000000000003</v>
+        <v>5203261857</v>
       </c>
       <c r="H18">
-        <v>0.61660999999999999</v>
+        <v>3272876921</v>
       </c>
       <c r="I18">
-        <v>0.61782999999999999</v>
+        <v>1320979747</v>
       </c>
       <c r="J18">
-        <v>0.93564999999999998</v>
+        <v>1459167865</v>
       </c>
       <c r="K18">
-        <v>0.93142999999999998</v>
+        <v>487376638</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2582,28 +2574,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.40991</v>
+        <v>74719993982</v>
       </c>
       <c r="C19">
-        <v>0.81215999999999999</v>
+        <v>80920345809</v>
       </c>
       <c r="E19">
-        <v>0.88075000000000003</v>
+        <v>50952464513</v>
       </c>
       <c r="F19">
-        <v>0.73872000000000004</v>
+        <v>13153942636</v>
       </c>
       <c r="G19">
-        <v>0.91905999999999999</v>
+        <v>107191450140</v>
+      </c>
+      <c r="H19">
+        <v>329156511323</v>
       </c>
       <c r="I19">
-        <v>0.58028000000000002</v>
+        <v>25728312641</v>
       </c>
       <c r="J19">
-        <v>0.97124999999999995</v>
+        <v>60373074165</v>
       </c>
       <c r="K19">
-        <v>0.94394999999999996</v>
+        <v>16885786351</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2611,31 +2606,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.59086000000000005</v>
+        <v>33914687701</v>
       </c>
       <c r="C20">
-        <v>0.78271999999999997</v>
+        <v>86663120760</v>
       </c>
       <c r="E20">
-        <v>0.81098000000000003</v>
+        <v>32560084706</v>
       </c>
       <c r="F20">
-        <v>0.74846999999999997</v>
+        <v>7863741807</v>
       </c>
       <c r="G20">
-        <v>0.91978000000000004</v>
+        <v>94471681154</v>
       </c>
       <c r="H20">
-        <v>0.61607000000000001</v>
+        <v>71292433128</v>
       </c>
       <c r="I20">
-        <v>0.62953999999999999</v>
+        <v>27296405208</v>
       </c>
       <c r="J20">
-        <v>0.93188000000000004</v>
+        <v>30556998320</v>
       </c>
       <c r="K20">
-        <v>0.94508999999999999</v>
+        <v>13066274760</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/all_log/profiler_result.xlsx
+++ b/draw_graph/all_log/profiler_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF44F78-8927-4368-B172-BE09E7F86655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA928B3-08BD-4AE3-9ED6-A98D6C9D6A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{433E881F-09D4-44EC-AE40-9660350EDDEA}"/>
+    <workbookView xWindow="5730" yWindow="2955" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{433E881F-09D4-44EC-AE40-9660350EDDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="warp_execution_efficiency" sheetId="4" r:id="rId1"/>
@@ -38,63 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>Polak</t>
   </si>
   <si>
@@ -138,13 +81,89 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +176,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,10 +209,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CBACC4-CE3F-4712-8129-06A16531535B}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,42 +541,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.40380097999999998</v>
@@ -583,8 +610,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.48380486</v>
@@ -618,8 +645,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.28287037000000004</v>
@@ -653,8 +680,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.53429989</v>
@@ -688,8 +715,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.71096935000000006</v>
@@ -723,8 +750,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.46898265</v>
@@ -758,8 +785,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.53673548999999998</v>
@@ -793,8 +820,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.57878613999999995</v>
@@ -828,8 +855,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0.36128928000000005</v>
@@ -863,8 +890,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0.75952538000000003</v>
@@ -898,8 +925,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>0.40905611999999997</v>
@@ -933,8 +960,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0.48081502999999998</v>
@@ -968,8 +995,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.59434924</v>
@@ -1003,8 +1030,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0.49733634000000004</v>
@@ -1038,8 +1065,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0.55778072000000001</v>
@@ -1073,8 +1100,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0.55197015999999999</v>
@@ -1108,8 +1135,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0.57770985000000008</v>
@@ -1143,8 +1170,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0.40991152999999997</v>
@@ -1175,8 +1202,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>0.59085644000000004</v>
@@ -1217,7 +1244,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1228,42 +1255,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>6.0759990000000004</v>
@@ -1297,8 +1324,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6.1591699999999996</v>
@@ -1332,8 +1359,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>4.9484820000000003</v>
@@ -1367,8 +1394,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>6.8074320000000004</v>
@@ -1402,8 +1429,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>6.9553849999999997</v>
@@ -1437,8 +1464,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6.9338600000000001</v>
@@ -1472,8 +1499,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>7.0331539999999997</v>
@@ -1507,8 +1534,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>6.1785990000000002</v>
@@ -1542,8 +1569,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6.356738</v>
@@ -1577,8 +1604,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7.0048399999999997</v>
@@ -1612,8 +1639,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>5.6406900000000002</v>
@@ -1647,8 +1674,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>6.687703</v>
@@ -1682,8 +1709,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>7.2001710000000001</v>
@@ -1717,8 +1744,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>7.6059970000000003</v>
@@ -1752,8 +1779,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>7.2499450000000003</v>
@@ -1787,8 +1814,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>7.2277079999999998</v>
@@ -1822,8 +1849,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>7.6501720000000004</v>
@@ -1857,8 +1884,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0.78135399999999999</v>
@@ -1886,8 +1913,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>7.7991979999999996</v>
@@ -1927,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5348AF-200F-4279-97B3-6315723C6778}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,42 +1968,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>79540</v>
@@ -2010,8 +2037,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>134253</v>
@@ -2045,8 +2072,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1042532</v>
@@ -2080,8 +2107,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2391970</v>
@@ -2115,8 +2142,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1724134</v>
@@ -2150,8 +2177,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>1288213</v>
@@ -2185,8 +2212,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>2613298</v>
@@ -2220,8 +2247,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1262877</v>
@@ -2255,8 +2282,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>37188435</v>
@@ -2290,8 +2317,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>12698660</v>
@@ -2325,8 +2352,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>43167751</v>
@@ -2360,8 +2387,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>22855690</v>
@@ -2395,8 +2422,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>97399027</v>
@@ -2430,8 +2457,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>470101628</v>
@@ -2465,8 +2492,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>166382154</v>
@@ -2500,8 +2527,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>244732710</v>
@@ -2535,8 +2562,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1528944333</v>
@@ -2570,8 +2597,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>74719993982</v>
@@ -2602,8 +2629,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>33914687701</v>

--- a/draw_graph/all_log/profiler_result.xlsx
+++ b/draw_graph/all_log/profiler_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA928B3-08BD-4AE3-9ED6-A98D6C9D6A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88900E00-6BA5-46BF-9E71-635A17FBD036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2955" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{433E881F-09D4-44EC-AE40-9660350EDDEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{433E881F-09D4-44EC-AE40-9660350EDDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="warp_execution_efficiency" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Polak</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1967,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2225,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>2613298</v>
@@ -2458,7 +2470,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>470101628</v>
@@ -2598,7 +2610,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>74719993982</v>
